--- a/biology/Microbiologie/Hantkeninidae/Hantkeninidae.xlsx
+++ b/biology/Microbiologie/Hantkeninidae/Hantkeninidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hantkeninidae sont une famille fossile de foraminifères de l'ordre des Rotaliida et de la classe des Globothalamea.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Hantkeninidae a été décrite en 1927 par le scientifique américain Joseph Augustine Cushman (d) (1881-1949)[1],[2]. Cette famille a été classée dans le sous-ordre des Globigerinina[3] et dans l'ordre des Globigerinida[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Hantkeninidae a été décrite en 1927 par le scientifique américain Joseph Augustine Cushman (d) (1881-1949),. Cette famille a été classée dans le sous-ordre des Globigerinina et dans l'ordre des Globigerinida,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la Paleobiology Database en 2023, les huit collections de fossiles référencées datent du Bartonien de l'Éocène à l'Éocène supérieur ou Priabonien, soit de 41,3 à 33,9 Ma avant notre ère[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Paleobiology Database en 2023, les huit collections de fossiles référencées datent du Bartonien de l'Éocène à l'Éocène supérieur ou Priabonien, soit de 41,3 à 33,9 Ma avant notre ère.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (16 mai 2018)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (16 mai 2018) :
 † Clavigerinella Bolli, Loeblich &amp; Tappan, 1957
 † Cribrohantkenina Thalmann, 1942
 † Hantkenina Cushman (d), 1925</t>
